--- a/Data Analysis/All Euclidian Distances/base Euclidian Distances of this subset.xlsx
+++ b/Data Analysis/All Euclidian Distances/base Euclidian Distances of this subset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ddc81097063262a/Desktop/UTEP-Brain-Computation-Lab-Remote-Databases-and-Serendipity-App/Data Analysis/All Euclidian Distances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_2759F5CCDF1BD794768FD805D087377871040D8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C16C5DB-2832-4050-B008-4A3660D219B1}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_2759F5CCDF1BD794768FD805D087377871040D8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158B2008-7A73-4C14-A357-214F2EFD5FE6}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,10 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,14 +487,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
